--- a/Control_file.xlsx
+++ b/Control_file.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21360" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21360" windowHeight="7395" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOM" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14751" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14753" uniqueCount="179">
   <si>
     <t>Test</t>
   </si>
@@ -1594,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1892,14 +1892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD29"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="G3:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -8483,7 +8483,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8495,7 +8494,7 @@
   <dimension ref="A1:U178"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD24"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20092,7 +20091,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U178"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -20102,8 +20100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U456"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L133" sqref="L131:L133"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N282" sqref="N282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28945,7 +28943,7 @@
         <v>21</v>
       </c>
       <c r="N136" s="24" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="O136" s="24" t="s">
         <v>21</v>
@@ -30700,10 +30698,10 @@
         <v>21</v>
       </c>
       <c r="N163" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O163" s="24">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="O163" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="P163" s="24" t="s">
         <v>21</v>
@@ -31740,10 +31738,10 @@
         <v>21</v>
       </c>
       <c r="N179" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="O179" s="24">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="O179" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="P179" s="24" t="s">
         <v>21</v>
@@ -34863,7 +34861,7 @@
         <v>70</v>
       </c>
       <c r="O227" s="24">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P227" s="24" t="s">
         <v>21</v>
@@ -35380,7 +35378,7 @@
         <v>21</v>
       </c>
       <c r="N235" s="24" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O235" s="24">
         <v>99</v>
@@ -35640,7 +35638,7 @@
         <v>21</v>
       </c>
       <c r="N239" s="24" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O239" s="24">
         <v>99</v>
@@ -36875,7 +36873,7 @@
         <v>21</v>
       </c>
       <c r="N258" s="25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O258" s="25">
         <v>99</v>
@@ -37395,7 +37393,7 @@
         <v>21</v>
       </c>
       <c r="N266" s="25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O266" s="25">
         <v>99</v>
@@ -37915,7 +37913,7 @@
         <v>21</v>
       </c>
       <c r="N274" s="25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O274" s="25">
         <v>99</v>
@@ -38435,7 +38433,7 @@
         <v>21</v>
       </c>
       <c r="N282" s="25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O282" s="25">
         <v>99</v>
@@ -38955,7 +38953,7 @@
         <v>21</v>
       </c>
       <c r="N290" s="25" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="O290" s="25">
         <v>99</v>
